--- a/outlookmsg.xlsx
+++ b/outlookmsg.xlsx
@@ -1,71 +1,2334 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+  <x:si>
+    <x:t xml:space="preserve">
+Warm regards,
+Ashik Bin Kader Nirjhar
+Asst: Manager, Business Development.
+Technometrics Limited
+M: +880-1711-084-156 (whatsapp)
+E: ashik@technometrics.net
+-----Original Message-----
+From: BDTender.com &lt;tenderalert@bdtender.com&gt; 
+Sent: Sunday, February 13, 2022 8:16 PM
+To: Tender Technometrics &lt;tender@technometrics.net&gt;
+Subject: TENDER ALERT: BDTender - 13/02/2022
+Dear Subscriber,
+You have 46 new Tender of your preferred area.
+BDTender mobile app search from Google play store or download: https://cutt.ly/FlvUCRd
+Please click the following links to view details:
+1. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply and Installation of Computer, Laboratory, Networking &amp; Electrical Equipment and other Accessories for IICT. (Published on 12/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Shahjalal University of Science and Technology
+	District: Sylhet
+	Local/International: Local
+	Earnest Money: 65,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469404A21862
+2. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance of Civil works (Door window repair, Plaster and painting), Sanitary, Plumbing and Electrical works. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469412A21862
+3. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation works of Civil works (Construction of RCC roof of Chilakota, door window repair, plaster and painting), Sanitary, Plumbing and Electrical works. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469419A21862
+4. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil works (Tiles, RCC slab of Chilakota, door window repair, plaster and painting), Sanitary, Plumbing and Electrical works. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469422A21862
+5. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil works, Sanitary, Plumbing and Electrical works with Supply of 61 no's ceiling fan. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469424A21862
+6. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for Supply of Office Equipment. (Published on 12/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Department of Textiles
+	District: Jamalpur
+	Local/International: Local
+	Earnest Money: 1,60,000.00
+	Schedule Price: 2,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469440A21862
+7. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for procurement of printer. (Published on 12/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Supreme Court of Bangladesh
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 30,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469444A21862
+8. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender Notice for Supply of Computer and Accessories. (Published on 12/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Shahjalal University of Science and Technology
+	District: Sylhet
+	Local/International: Local
+	Earnest Money: 99,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469481A21862
+9. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil works (Tiles, wooden door, plaster and painting), Sanitary, Plumbing and Electrical works. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469413A21862
+10. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender Notice for Procurement of Laptop Computer.
+	Issue Date: 13/02/2022
+	Organization: Chattogram Veterinary and Animal Sciences University
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 85,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469507A21862
+11. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Procurement of Fan, sound system and other electronic equipment for classroom, seminar, laboratories and online class room studio.
+	Issue Date: 13/02/2022
+	Organization: College/Institute/Academy/School
+	District: Manikganj
+	Local/International: Local
+	Earnest Money: 65,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469535A21862
+12. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Coil Solenoid.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 15/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469580A21862
+13. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Circuit Breaker.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 15/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469600A21862
+14. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Battery.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 15/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469599A21862
+15. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for 33 KV Line Construction works.
+	Issue Date: 13/02/2022
+	Organization: Northern Electricity Supply Co. Ltd. (NESCO)
+	District: Sirajganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 02/03/2022
+	Submission Date: 03/03/2022
+	Opening Date: 03/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469603A21862
+16. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Procurement of Sound System and Electrical Item for Conference Room, Auditorium and Class Room.
+	Issue Date: 13/02/2022
+	Organization: College/Institute/Academy/School
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 25,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469631A21862
+17. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for Request for Expressions of Interest (EOI) for selection of A Firm for Developing Integrated Digital Service Delivery Platform.
+	Issue Date: 13/02/2022
+	Organization: Ministry of LGRD and Co-operatives
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 21/03/2022
+	Opening Date: 
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469640A21862
+18. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair &amp; Maintenance of Civil works (Providing RCC roof, Brick works, Plaster, Tiles, New door &amp; window), Sanitary, Plumbing &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469406A21862
+19. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of computer materials.
+	Issue Date: 13/02/2022
+	Organization: National Institute of Mental Health and Hospital
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 20,000.00
+	Schedule Price: 700.00
+	Purchase Date: 12/03/2022
+	Submission Date: 13/03/2022
+	Opening Date: 13/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469563A21862
+20. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for 33KV Line Construction Works.
+	Issue Date: 13/02/2022
+	Organization: Northern Electricity Supply Co. Ltd. (NESCO)
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 2,00,000.00
+	Schedule Price: 4,000.00
+	Purchase Date: 01/03/2022
+	Submission Date: 02/03/2022
+	Opening Date: 02/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469586A21862
+21. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply &amp; installation of LED fiber (CtP- screen) , Power supply SWS 600-24 , AC Servo PAC &amp; accessories.
+	Issue Date: 13/02/2022
+	Organization: Directorate of Technical Education
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 35,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 01/03/2022
+	Submission Date: 02/03/2022
+	Opening Date: 02/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469570A21862
+22. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply, installation &amp; commissioning of Brand Desktop Computer, UPS and related services.
+	Issue Date: 13/02/2022
+	Organization: Rajshahi Krishi Unnayan Bank
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 20,00,000.00
+	Schedule Price: 2,500.00
+	Purchase Date: 10/03/2022
+	Submission Date: 13/03/2022
+	Opening Date: 13/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469501A21862
+23. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for electricity maintenance &amp; Cleaning work execution.
+	Issue Date: 13/02/2022
+	Organization: Ashuganj Power Station Company Ltd.
+	District: Brahmanbaria
+	Local/International: Local
+	Earnest Money: 18,000.00
+	Schedule Price: 500.00
+	Purchase Date: 02/03/2022
+	Submission Date: 03/03/2022
+	Opening Date: 03/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469499A21862
+24. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Telephone Set.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 15/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469684A21862
+25. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Overload Contactor &amp; Relay.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 16/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469705A21862
+26. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Fire Alarm System Call Point.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 16/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469703A21862
+27. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender Notice for Supply of Waste Management Related Goods.
+	Issue Date: 13/02/2022
+	Organization: Satkhira Medical College
+	District: Satkhira
+	Local/International: Local
+	Earnest Money: 5,00,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469702A21862
+28. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Hand Set Curly Cord Cable.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 16/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469714A21862
+29. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of PCB.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 16/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469713A21862
+30. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair &amp; Maintenance of Civil works (RC pad on roof, plaster, door &amp; window repair, Tiles, painting etc), Sanitary, plumbing &amp; electrical works. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469408A21862
+31. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil works (RC pad, tiles, steel glazed window, Plaster and painting), Sanitary, Plumbing and Electrical works. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469410A21862
+32. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for Vendor Enlistment.
+	Issue Date: 13/02/2022
+	Organization: Others
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 10/03/2022
+	Opening Date: 
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469526A21862
+33. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Capacitor.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 15/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469593A21862
+34. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply, installation &amp; commissioning of Image Scanner &amp; MICR Scanner, Laser Printer and related services.
+	Issue Date: 13/02/2022
+	Organization: Rajshahi Krishi Unnayan Bank
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 3,50,000.00
+	Schedule Price: 2,500.00
+	Purchase Date: 09/03/2022
+	Submission Date: 10/03/2022
+	Opening Date: 10/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469504A21862
+35. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for inviting sealed quotations from the prospective Tally software developer company/firm agency/ suppliers for purchasing Tally software.
+	Issue Date: 13/02/2022
+	Organization: Family Planning Association of Bangladesh
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 500.00
+	Purchase Date: 
+	Submission Date: 22/02/2022
+	Opening Date: 
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469537A21862
+36. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair &amp; Maintenance of Sanitary &amp; Electrical works of OPD building, supply &amp; installation of External Electric Pole &amp; Garden fencing works. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469400A21862
+37. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil works (Tiles, door windows, plaster and painting), Sanitary, Plumbing and Electrical works. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469417A21862
+38. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Rotary Switch.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 15/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469595A21862
+39. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Switch Piano.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 15/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469610A21862
+40. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Rotary Switch and Cell Battery Taster.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 15/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469608A21862
+41. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Construction &amp; Renovation of 11 KV, 11/0.4 KV, 0.4 KV, &amp; 0.23 KV lines &amp; installation of distribution transformers.
+	Issue Date: 13/02/2022
+	Organization: Northern Electricity Supply Co. Ltd. (NESCO)
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 2,00,000.00
+	Schedule Price: 4,000.00
+	Purchase Date: 28/02/2022
+	Submission Date: 01/03/2022
+	Opening Date: 01/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469576A21862
+42. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair &amp; Maintenance of Civil works (Plaster, Paint, Door ,Thai alluminium window repair), Sanitary, plumbing &amp; electrical works of Hospital &amp; OPD Building. (Published on 11/02/2022).
+	Issue Date: 13/02/2022
+	Organization: Health Engineering Department
+	District: Gopalganj
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 23/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469405A21862
+43. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of desktop, Laptop and Printer.
+	Issue Date: 13/02/2022
+	Organization: Manabik Shahajya Sangsta
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 20/02/2022
+	Opening Date: 
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469522A21862
+44. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Providing and Fixing Electrical Special Equipment at various officers room as well as Installation of new CCTV with repair and renovation of CCTV.
+	Issue Date: 13/02/2022
+	Organization: Dhaka PWD
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 17/02/2022
+	Submission Date: 20/02/2022
+	Opening Date: 20/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469774A21862
+45. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Telephone Set.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 15/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469596A21862
+46. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for supply of Cyalume Chemlight.
+	Issue Date: 13/02/2022
+	Organization: Bangladesh Navy (NSD-Chattogram)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 
+	Opening Date: 15/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469655A21862
+Sincerely,
+BDTender
+https://www.bdtender.com
+mail to: marketing@bdtender.com
+Phone: 01789-772266, 01553-651165
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply of Computer and Accessories. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Shahjalal University of Science and Technology
+	District: Sylhet
+	Local/International: Local
+	Earnest Money: 40,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 28/02/2022
+	Submission Date: 01/03/2022
+	Opening Date: 01/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469200A21862
+48. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender Notice for Supply &amp; Installation of Various Wattage Server Based Smart LED Street Light Fittings and Related Electrical Works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Dhaka City Corporation (South)
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 20,00,000.00
+	Schedule Price: 4,000.00
+	Purchase Date: 14/03/2022
+	Submission Date: 15/03/2022
+	Opening Date: 15/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469203A21862
+49. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply, Installation and Configuration of Network Switch and Network node complete fitting fixing. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Shahjalal University of Science and Technology
+	District: Sylhet
+	Local/International: Local
+	Earnest Money: 17,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469204A21862
+50. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for APNIC IP.
+	Issue Date: 12/02/2022
+	Organization: Chattogram Port Authority
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 16/02/2022
+	Opening Date: 16/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469233A21862
+51. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Replacement of various Electrical materials and related works in South Container Yard, Dolphin Jetty, other service building and replacement of HT cable in residential area. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Chattogram Port Authority
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 95,000.00
+	Schedule Price: 200.00
+	Purchase Date: 28/02/2022
+	Submission Date: 01/03/2022
+	Opening Date: 01/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469235A21862
+52. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Installation of Solar Light System. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Roads and Highways Department
+	District: Kishoreganj
+	Local/International: Local
+	Earnest Money: 13,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469211A21862
+53. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469018A21862
+54. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469021A21862
+55. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Installation &amp; Construction of Piped Water Supply Scheme with 02 nos Test Tubewell, 02 nos Production well, 02 nos Pump House, 01 Nos R.C.C Over Head Water Tank, Mechanical works, Electrical Works, Pipe Line/water distribution Networks, etc. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Department of Public Health Engineering (DPHE)
+	District: Satkhira
+	Local/International: Local
+	Earnest Money: 5,00,000.00
+	Schedule Price: 2,000.00
+	Purchase Date: 17/02/2022
+	Submission Date: 20/02/2022
+	Opening Date: 20/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469061A21862
+56. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Construction/Expansion of 11 KV &amp; 0.4 KV New Line and other related Renovation &amp; Line development works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Bangladesh Power Development Board (PDB)
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 1,84,000.00
+	Schedule Price: 2,000.00
+	Purchase Date: 03/03/2022
+	Submission Date: 03/03/2022
+	Opening Date: 03/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469271A21862
+57. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Electrical goods and related services/works for Office Room, Common Toilet &amp; Corridor. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Department of Agricultural Extension (DAE)
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 35,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 24/02/2022
+	Submission Date: 27/02/2022
+	Opening Date: 27/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469278A21862
+58. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender Notice for Supply of Office Equipment. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Housing and Building Research Institute
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 65,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 28/02/2022
+	Submission Date: 01/03/2022
+	Opening Date: 01/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469038A21862
+59. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Providing, dismantling &amp; reinstallation of taxiway centerline light. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Civil Aviation Authority of Bangladesh (CAAB)
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 3,70,000.00
+	Schedule Price: 2,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469037A21862
+60. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for 33kv power cable laying works.
+	Issue Date: 12/02/2022
+	Organization: Palli Biddut Samity
+	District: Chattogram
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 
+	Submission Date: 16/02/2022
+	Opening Date: 16/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469173A21862
+61. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply of Office Equipment. (Published on 10/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Moulvibazar
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 02/03/2022
+	Submission Date: 03/03/2022
+	Opening Date: 03/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10468963A21862
+62. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Providing &amp; Installation of ventilation fan motor including related job. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Civil Aviation Authority of Bangladesh (CAAB)
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 3,00,000.00
+	Schedule Price: 2,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469039A21862
+63. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Engaging Oil Purification machine for centrifuging of Transformer oil &amp; Washing of 33/0.44 KV Sub-Station of 500 KVA Transformer Coil &amp; core , Di-Electric strength test of transformer oil with sample collection &amp; required necessary accessories, Cleaning &amp; Varnishing Works of 4 Nos Motor of MPP &amp; RPP , Supplying &amp; Fitting Fixing works of different Electrical equipments etc. (Published on 10/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Rangamati WDB
+	District: Rangamati
+	Local/International: Local
+	Earnest Money: 58,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 24/02/2022
+	Submission Date: 24/02/2022
+	Opening Date: 24/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10468930A21862
+64. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: Tender notice for Supply and Installation of Solar powered street lights. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Pourashava/Municipality
+	District: Mymensingh
+	Local/International: Local
+	Earnest Money: 2,00,000.00
+	Schedule Price: 2,000.00
+	Purchase Date: 06/03/2022
+	Submission Date: 07/03/2022
+	Opening Date: 07/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469121A21862
+65. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply of Engineering &amp; Others Equipment( Digital Electronics &amp; Automation +ENT LAB). (Published on 10/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Moulvibazar
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 02/03/2022
+	Submission Date: 03/03/2022
+	Opening Date: 03/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10468969A21862
+66. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repairing of cassette type Air Cooler and other works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Department of Public Health Engineering (DPHE)
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 28/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469308A21862
+67. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply of Engineering &amp; Others Equipment (Computer Software &amp; Network Lab). (Published on 10/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Moulvibazar
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 02/03/2022
+	Submission Date: 03/03/2022
+	Opening Date: 03/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10468979A21862
+68. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469017A21862
+69. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply of Computer Accessories. (Published on 10/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Moulvibazar
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 02/03/2022
+	Submission Date: 03/03/2022
+	Opening Date: 03/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10468965A21862
+70. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Electrical Repair works including Replacement of Fittings &amp; fixtures of Ground Floor Newly Constructed Office. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Gaibandha PWD
+	District: Gaibandha
+	Local/International: Local
+	Earnest Money: 10,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 22/02/2022
+	Submission Date: 23/02/2022
+	Opening Date: 23/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469326A21862
+71. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469000A21862
+72. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Electrical Repair works of Dormitory Building. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Gaibandha PWD
+	District: Gaibandha
+	Local/International: Local
+	Earnest Money: 8,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 22/02/2022
+	Submission Date: 23/02/2022
+	Opening Date: 23/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469329A21862
+73. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply and Installation of Electrical Fitting Fixtures, CCTV, PABX, Air Cooler and other Related Works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Dhaka PWD
+	District: Dhaka
+	Local/International: Local
+	Earnest Money: 2,50,000.00
+	Schedule Price: 2,000.00
+	Purchase Date: 24/02/2022
+	Submission Date: 27/02/2022
+	Opening Date: 27/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469118A21862
+74. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469003A21862
+75. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469002A21862
+76. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469001A21862
+77. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Procurement of Laptop &amp; Computer Accessories. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Thakurgaon
+	Local/International: Local
+	Earnest Money: 1,40,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 24/02/2022
+	Submission Date: 27/02/2022
+	Opening Date: 27/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469066A21862
+78. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10468996A21862
+79. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender Notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical Works (Supply of Split Type Air Cooler). (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 30,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469071A21862
+80. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair &amp; Maintenance Works of Floor Tiles, Toilet Tiles, Door &amp; Window Repair, Plaster, Painting, Sanitary &amp; Electrical Works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Bogura
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469377A21862
+81. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair &amp; Maintenance Works of Door &amp; Window Repair, Plaster, Painting, Sanitary &amp; Electrical Works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Bogura
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469378A21862
+82. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply of Engineering &amp; Others Equipment (Instrumentation &amp; Biomedical Lab). (Published on 10/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Moulvibazar
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 02/03/2022
+	Submission Date: 03/03/2022
+	Opening Date: 03/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10468971A21862
+83. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for supply of Equipments of Electrical Technology. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Dinajpur
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 28/02/2022
+	Submission Date: 01/03/2022
+	Opening Date: 01/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469387A21862
+84. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for supply of Computer Equipment. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Dinajpur
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 28/02/2022
+	Submission Date: 01/03/2022
+	Opening Date: 01/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469386A21862
+85. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for supply of Office Equipment. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Dinajpur
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 28/02/2022
+	Submission Date: 01/03/2022
+	Opening Date: 01/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469385A21862
+86. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for supply of Education &amp; Teaching Elements. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Dinajpur
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 28/02/2022
+	Submission Date: 01/03/2022
+	Opening Date: 01/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469384A21862
+87. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for supply of Raw Materials &amp; Retail Machinery. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Directorate of Technical Education
+	District: Dinajpur
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 28/02/2022
+	Submission Date: 01/03/2022
+	Opening Date: 01/03/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469383A21862
+88. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair &amp; Maintenance Works of Floors Tiles, Toilet Tiles, Door &amp; Window Repair Plaster, Painting, Sanitary &amp; Electrical works Residential Quarter. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Bogura
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469379A21862
+89. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469010A21862
+90. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply of Photocopier. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Department of Public Health Engineering (DPHE)
+	District: Dinajpur
+	Local/International: Local
+	Earnest Money: 6,000.00
+	Schedule Price: 1,000.00
+	Purchase Date: 24/02/2022
+	Submission Date: 27/02/2022
+	Opening Date: 27/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469351A21862
+91. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supply of Computer. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Department of Public Health Engineering (DPHE)
+	District: Dinajpur
+	Local/International: Local
+	Earnest Money: 2,500.00
+	Schedule Price: 1,000.00
+	Purchase Date: 24/02/2022
+	Submission Date: 27/02/2022
+	Opening Date: 27/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469355A21862
+92. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Supplying Electrical Goods for Street Light &amp; Office. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Pourashava/Municipality
+	District: Noakhali
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 28/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469362A21862
+93. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair &amp; Maintenance Works of Floor Tiles, Toilet Tiles, Door &amp; Window Repair, Plaster, R.C. Pad, Painting, Sanitary Water Supply, Submersible Pump &amp; Electrical Works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Bogura
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469374A21862
+94. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair &amp; Maintenance Works of Floor Tiles, Toilet Tiles, Door &amp; Window Repair, Plaster, R.C. Pad, Painting, Sanitary Water Supply, Submersible Pump &amp; Electrical Works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Bogura
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469373A21862
+95. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair &amp; Maintenance Works of Floor Tiles, Toilet Tiles, Door &amp; Window Repair, Painting, Sanitary &amp; Electrical Works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Bogura
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469372A21862
+96. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: e-Tender: e-GP Tender notice for Repair, Maintenance &amp; Renovation of Civil, Sanitary &amp; Electrical works. (Published on 11/02/2022).
+	Issue Date: 12/02/2022
+	Organization: Health Engineering Department
+	District: Rajshahi
+	Local/International: Local
+	Earnest Money: 
+	Schedule Price: 
+	Purchase Date: 27/02/2022
+	Submission Date: 28/02/2022
+	Opening Date: 28/02/2022
+	View Image(s): https://www.bdtender.com/tend_call.php?file=10469024A21862
+Sincerely,
+BDTender
+https://www.bdtender.com
+mail to: marketing@bdtender.com
+Phone: 01789-772266, 01553-651165
+</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="290">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2593,506 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:1">
+      <x:c r="A20" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:1">
+      <x:c r="A22" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:1">
+      <x:c r="A23" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:1">
+      <x:c r="A24" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:1">
+      <x:c r="A25" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:1">
+      <x:c r="A26" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:1">
+      <x:c r="A27" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:1">
+      <x:c r="A28" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:1">
+      <x:c r="A29" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:1">
+      <x:c r="A30" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:1">
+      <x:c r="A31" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:1">
+      <x:c r="A32" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:1">
+      <x:c r="A33" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:1">
+      <x:c r="A34" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:1">
+      <x:c r="A35" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:1">
+      <x:c r="A36" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:1">
+      <x:c r="A37" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:1">
+      <x:c r="A38" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:1">
+      <x:c r="A39" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:1">
+      <x:c r="A40" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:1">
+      <x:c r="A41" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:1">
+      <x:c r="A42" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:1">
+      <x:c r="A43" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:1">
+      <x:c r="A44" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:1">
+      <x:c r="A45" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:1">
+      <x:c r="A46" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:1">
+      <x:c r="A47" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:1">
+      <x:c r="A48" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:1">
+      <x:c r="A49" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:1">
+      <x:c r="A50" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:1">
+      <x:c r="A51" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:1">
+      <x:c r="A52" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:1">
+      <x:c r="A53" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:1">
+      <x:c r="A54" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:1">
+      <x:c r="A55" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:1">
+      <x:c r="A56" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:1">
+      <x:c r="A57" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:1">
+      <x:c r="A58" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:1">
+      <x:c r="A59" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:1">
+      <x:c r="A60" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:1">
+      <x:c r="A61" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:1">
+      <x:c r="A62" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:1">
+      <x:c r="A63" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:1">
+      <x:c r="A64" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:1">
+      <x:c r="A65" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:1">
+      <x:c r="A66" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:1">
+      <x:c r="A67" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:1">
+      <x:c r="A68" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:1">
+      <x:c r="A69" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:1">
+      <x:c r="A70" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:1">
+      <x:c r="A71" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:1">
+      <x:c r="A72" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:1">
+      <x:c r="A73" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:1">
+      <x:c r="A74" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:1">
+      <x:c r="A75" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:1">
+      <x:c r="A76" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:1">
+      <x:c r="A77" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:1">
+      <x:c r="A78" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:1">
+      <x:c r="A79" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:1">
+      <x:c r="A80" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:1">
+      <x:c r="A81" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:1">
+      <x:c r="A82" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:1">
+      <x:c r="A83" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:1">
+      <x:c r="A84" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:1">
+      <x:c r="A85" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:1">
+      <x:c r="A86" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:1">
+      <x:c r="A87" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:1">
+      <x:c r="A88" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:1">
+      <x:c r="A89" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:1">
+      <x:c r="A90" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:1">
+      <x:c r="A91" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:1">
+      <x:c r="A92" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:1">
+      <x:c r="A93" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:1">
+      <x:c r="A94" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:1">
+      <x:c r="A95" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:1">
+      <x:c r="A96" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:1">
+      <x:c r="A97" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>